--- a/examples/Predefines Excel Style.xlsx
+++ b/examples/Predefines Excel Style.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="0" windowWidth="28515" windowHeight="12510"/>
+    <workbookView xWindow="-165" yWindow="60" windowWidth="28515" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Light" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Dark" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -58,9 +57,6 @@
     <t>L'apothicaire</t>
   </si>
   <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
     <t>DARK</t>
   </si>
   <si>
@@ -125,6 +121,126 @@
   </si>
   <si>
     <t>BOARD_LIGHT_ORANGE_2_STYLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_GRAY_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_GRAY_2_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_GRAY_3_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_GRAY_4_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_BLUE_4_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_BLUE_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_BLUE_2_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_BLUE_3_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_RED_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_RED_2_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_RED_3_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_RED_4_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_GREEN_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_GREEN_2_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_GREEN_3_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_GREEN_4_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_PURPLE_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_PURPLE_2_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_PURPLE_3_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_PURPLE_4_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_TURQUOISE_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_TURQUOISE_2_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_TURQUOISE_3_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_TURQUOISE_4_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_ORANGE_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_ORANGE_2_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_ORANGE_3_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_MEDIUM_ORANGE_4_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_GRAY_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_BLUE_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_RED_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_GREEN_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_PURPLE_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_TURQUOISE_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_ORANGE_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_MIX_1_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_MIX_2_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_MIX_3_STYLE</t>
+  </si>
+  <si>
+    <t>BOARD_DARK_MIX_4_STYLE</t>
   </si>
 </sst>
 </file>
@@ -156,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -184,17 +300,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,7 +391,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:D8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B4:D9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -221,8 +402,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau10" displayName="Tableau10" ref="N3:P8" totalsRowShown="0">
-  <autoFilter ref="N3:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau10" displayName="Tableau10" ref="N4:P9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -233,8 +413,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau11" displayName="Tableau11" ref="N12:P17" totalsRowShown="0">
-  <autoFilter ref="N12:P17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau11" displayName="Tableau11" ref="N13:P18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -245,8 +424,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tableau12" displayName="Tableau12" ref="N21:P26" totalsRowShown="0">
-  <autoFilter ref="N21:P26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tableau12" displayName="Tableau12" ref="N22:P27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -257,8 +435,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau13" displayName="Tableau13" ref="R3:T8" totalsRowShown="0">
-  <autoFilter ref="R3:T8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau13" displayName="Tableau13" ref="R4:T9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -269,8 +446,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tableau14" displayName="Tableau14" ref="R12:T17" totalsRowShown="0">
-  <autoFilter ref="R12:T17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tableau14" displayName="Tableau14" ref="R13:T18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -281,8 +457,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau15" displayName="Tableau15" ref="R21:T26" totalsRowShown="0">
-  <autoFilter ref="R21:T26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau15" displayName="Tableau15" ref="R22:T27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -293,8 +468,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tableau16" displayName="Tableau16" ref="V3:X8" totalsRowShown="0">
-  <autoFilter ref="V3:X8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tableau16" displayName="Tableau16" ref="V4:X9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -305,8 +479,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tableau17" displayName="Tableau17" ref="V12:X17" totalsRowShown="0">
-  <autoFilter ref="V12:X17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tableau17" displayName="Tableau17" ref="V13:X18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -317,8 +490,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tableau18" displayName="Tableau18" ref="V21:X26" totalsRowShown="0">
-  <autoFilter ref="V21:X26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tableau18" displayName="Tableau18" ref="V22:X27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -329,8 +501,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tableau19" displayName="Tableau19" ref="Z3:AB8" totalsRowShown="0">
-  <autoFilter ref="Z3:AB8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tableau19" displayName="Tableau19" ref="Z4:AB9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -341,8 +512,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B12:D17" totalsRowShown="0">
-  <autoFilter ref="B12:D17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B13:D18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -353,8 +523,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tableau20" displayName="Tableau20" ref="Z12:AB17" totalsRowShown="0">
-  <autoFilter ref="Z12:AB17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tableau20" displayName="Tableau20" ref="Z13:AB18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -365,8 +534,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tableau21" displayName="Tableau21" ref="Z21:AB26" totalsRowShown="0">
-  <autoFilter ref="Z21:AB26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tableau21" displayName="Tableau21" ref="Z22:AB27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -377,8 +545,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tableau22" displayName="Tableau22" ref="B2:D7" totalsRowShown="0">
-  <autoFilter ref="B2:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tableau22" displayName="Tableau22" ref="B4:D9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -389,7 +556,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tableau23" displayName="Tableau23" ref="B10:D15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tableau23" displayName="Tableau23" ref="B13:D18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -400,8 +567,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tableau24" displayName="Tableau24" ref="B18:D23" totalsRowShown="0">
-  <autoFilter ref="B18:D23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tableau24" displayName="Tableau24" ref="B22:D27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -412,8 +578,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tableau25" displayName="Tableau25" ref="B26:D31" totalsRowShown="0">
-  <autoFilter ref="B26:D31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tableau25" displayName="Tableau25" ref="B31:D36" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -424,8 +589,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tableau26" displayName="Tableau26" ref="F2:H7" totalsRowShown="0">
-  <autoFilter ref="F2:H7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tableau26" displayName="Tableau26" ref="F4:H9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -436,7 +600,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tableau27" displayName="Tableau27" ref="F10:H15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tableau27" displayName="Tableau27" ref="F13:H18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -447,7 +611,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tableau28" displayName="Tableau28" ref="F18:H23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tableau28" displayName="Tableau28" ref="F22:H27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -458,7 +622,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tableau29" displayName="Tableau29" ref="F26:H31" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tableau29" displayName="Tableau29" ref="F31:H36" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -469,7 +633,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B21:D26" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B22:D27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -480,8 +644,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tableau30" displayName="Tableau30" ref="J2:L7" totalsRowShown="0">
-  <autoFilter ref="J2:L7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tableau30" displayName="Tableau30" ref="J4:L9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -492,7 +655,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tableau31" displayName="Tableau31" ref="J10:L15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tableau31" displayName="Tableau31" ref="J13:L18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -503,7 +666,7 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tableau32" displayName="Tableau32" ref="J18:L23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tableau32" displayName="Tableau32" ref="J22:L27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -514,7 +677,7 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tableau33" displayName="Tableau33" ref="J26:L31" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tableau33" displayName="Tableau33" ref="J31:L36" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -525,8 +688,7 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Tableau34" displayName="Tableau34" ref="N2:P7" totalsRowShown="0">
-  <autoFilter ref="N2:P7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Tableau34" displayName="Tableau34" ref="N4:P9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -537,8 +699,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tableau35" displayName="Tableau35" ref="N10:P15" totalsRowShown="0">
-  <autoFilter ref="N10:P15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tableau35" displayName="Tableau35" ref="N13:P18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -549,8 +710,7 @@
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Tableau36" displayName="Tableau36" ref="N18:P23" totalsRowShown="0">
-  <autoFilter ref="N18:P23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Tableau36" displayName="Tableau36" ref="N22:P27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -561,8 +721,7 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Tableau37" displayName="Tableau37" ref="N26:P31" totalsRowShown="0">
-  <autoFilter ref="N26:P31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Tableau37" displayName="Tableau37" ref="N31:P36" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -573,8 +732,7 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Tableau38" displayName="Tableau38" ref="R2:T7" totalsRowShown="0">
-  <autoFilter ref="R2:T7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Tableau38" displayName="Tableau38" ref="R4:T9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -585,8 +743,7 @@
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Tableau39" displayName="Tableau39" ref="R10:T15" totalsRowShown="0">
-  <autoFilter ref="R10:T15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Tableau39" displayName="Tableau39" ref="R13:T18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -597,8 +754,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="F3:H8" totalsRowShown="0">
-  <autoFilter ref="F3:H8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="F4:H9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -609,8 +765,7 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Tableau40" displayName="Tableau40" ref="R18:T23" totalsRowShown="0">
-  <autoFilter ref="R18:T23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Tableau40" displayName="Tableau40" ref="R22:T27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -621,8 +776,7 @@
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Tableau41" displayName="Tableau41" ref="R26:T31" totalsRowShown="0">
-  <autoFilter ref="R26:T31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Tableau41" displayName="Tableau41" ref="R31:T36" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -633,8 +787,7 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Tableau42" displayName="Tableau42" ref="V2:X7" totalsRowShown="0">
-  <autoFilter ref="V2:X7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Tableau42" displayName="Tableau42" ref="V4:X9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -645,8 +798,7 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Tableau43" displayName="Tableau43" ref="V10:X15" totalsRowShown="0">
-  <autoFilter ref="V10:X15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Tableau43" displayName="Tableau43" ref="V13:X18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -657,8 +809,7 @@
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Tableau44" displayName="Tableau44" ref="V18:X23" totalsRowShown="0">
-  <autoFilter ref="V18:X23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Tableau44" displayName="Tableau44" ref="V22:X27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -669,8 +820,7 @@
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Tableau45" displayName="Tableau45" ref="V26:X31" totalsRowShown="0">
-  <autoFilter ref="V26:X31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Tableau45" displayName="Tableau45" ref="V31:X36" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -681,8 +831,7 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Tableau46" displayName="Tableau46" ref="Z2:AB7" totalsRowShown="0">
-  <autoFilter ref="Z2:AB7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Tableau46" displayName="Tableau46" ref="Z4:AB9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -693,8 +842,7 @@
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Tableau47" displayName="Tableau47" ref="Z10:AB15" totalsRowShown="0">
-  <autoFilter ref="Z10:AB15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Tableau47" displayName="Tableau47" ref="Z13:AB18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -705,8 +853,7 @@
 </file>
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Tableau48" displayName="Tableau48" ref="Z18:AB23" totalsRowShown="0">
-  <autoFilter ref="Z18:AB23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Tableau48" displayName="Tableau48" ref="Z22:AB27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -717,8 +864,7 @@
 </file>
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Tableau49" displayName="Tableau49" ref="Z26:AB31" totalsRowShown="0">
-  <autoFilter ref="Z26:AB31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Tableau49" displayName="Tableau49" ref="Z31:AB36" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -729,8 +875,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="F12:H17" totalsRowShown="0">
-  <autoFilter ref="F12:H17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="F13:H18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -741,8 +886,7 @@
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Tableau50" displayName="Tableau50" ref="B2:D7" totalsRowShown="0">
-  <autoFilter ref="B2:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Tableau50" displayName="Tableau50" ref="B4:D9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -753,8 +897,7 @@
 </file>
 
 <file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Tableau51" displayName="Tableau51" ref="F2:H7" totalsRowShown="0">
-  <autoFilter ref="F2:H7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Tableau51" displayName="Tableau51" ref="F4:H9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -765,7 +908,7 @@
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Tableau52" displayName="Tableau52" ref="J2:L7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Tableau52" displayName="Tableau52" ref="J4:L9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -776,8 +919,7 @@
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Tableau53" displayName="Tableau53" ref="N2:P7" totalsRowShown="0">
-  <autoFilter ref="N2:P7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Tableau53" displayName="Tableau53" ref="N4:P9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -788,8 +930,7 @@
 </file>
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Tableau54" displayName="Tableau54" ref="R2:T7" totalsRowShown="0">
-  <autoFilter ref="R2:T7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Tableau54" displayName="Tableau54" ref="R4:T9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -800,8 +941,7 @@
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="Tableau55" displayName="Tableau55" ref="V2:X7" totalsRowShown="0">
-  <autoFilter ref="V2:X7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="Tableau55" displayName="Tableau55" ref="V4:X9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -812,8 +952,7 @@
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Tableau56" displayName="Tableau56" ref="Z2:AB7" totalsRowShown="0">
-  <autoFilter ref="Z2:AB7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Tableau56" displayName="Tableau56" ref="Z4:AB9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -824,8 +963,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Tableau57" displayName="Tableau57" ref="B10:D15" totalsRowShown="0">
-  <autoFilter ref="B10:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Tableau57" displayName="Tableau57" ref="B13:D18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -836,7 +974,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Tableau58" displayName="Tableau58" ref="F10:H15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Tableau58" displayName="Tableau58" ref="F13:H18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -847,7 +985,7 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="Tableau59" displayName="Tableau59" ref="J10:L15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="Tableau59" displayName="Tableau59" ref="J13:L18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -858,7 +996,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="F21:H26" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="F22:H27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -869,8 +1007,7 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="Tableau60" displayName="Tableau60" ref="N10:P15" totalsRowShown="0">
-  <autoFilter ref="N10:P15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="Tableau60" displayName="Tableau60" ref="N13:P18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -881,7 +1018,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="J3:L8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="J4:L9" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -892,7 +1029,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="J12:L17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="J13:L18" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -903,7 +1040,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="J21:L26" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="J22:L27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NOM"/>
@@ -1201,1278 +1338,1360 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="B2:AB26"/>
+  <dimension ref="B1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
     <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" customWidth="1"/>
     <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
     <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="8"/>
+      <c r="R2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
+      <c r="V2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="8"/>
+      <c r="Z2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="8"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:28" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="N11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="R11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="7"/>
+      <c r="T11" s="8"/>
+      <c r="V11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="7"/>
+      <c r="X11" s="8"/>
+      <c r="Z11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AA11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T12" t="s">
-        <v>2</v>
-      </c>
-      <c r="V12" t="s">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>1</v>
-      </c>
-      <c r="X12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>2</v>
-      </c>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="8"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="V13" t="s">
+        <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="F20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="N20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="R20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
+      <c r="V20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="7"/>
+      <c r="X20" s="8"/>
+      <c r="Z20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>2</v>
-      </c>
-      <c r="R21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>1</v>
-      </c>
-      <c r="T21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V21" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>2</v>
-      </c>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="8"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R22" t="s">
+        <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>12</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="V22" t="s">
+        <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27" t="s">
+        <v>7</v>
+      </c>
+      <c r="X27" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB27" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:H20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="21">
@@ -2504,14 +2723,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="B2:AB31"/>
+  <dimension ref="B1:AB36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
@@ -2541,1572 +2759,1752 @@
     <col min="28" max="28" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="N2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8"/>
+      <c r="R2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
+      <c r="V2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="8"/>
+      <c r="Z2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="8"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB7" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
-        <v>2</v>
-      </c>
-      <c r="V10" t="s">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
-        <v>1</v>
-      </c>
-      <c r="X10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11" t="s">
-        <v>3</v>
-      </c>
-      <c r="T11" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11" t="s">
-        <v>3</v>
-      </c>
-      <c r="X11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="N11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="R11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="8"/>
+      <c r="V11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" s="7"/>
+      <c r="X11" s="8"/>
+      <c r="Z11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="8"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12" t="s">
-        <v>4</v>
-      </c>
-      <c r="X12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z12">
-        <v>2</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>3</v>
+      <c r="B13" t="s">
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>10</v>
-      </c>
-      <c r="V13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="V13" t="s">
+        <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>0</v>
+      <c r="B18">
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
       </c>
       <c r="O18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P18" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
       </c>
       <c r="S18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T18" t="s">
-        <v>2</v>
-      </c>
-      <c r="V18" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
       </c>
       <c r="W18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
       </c>
       <c r="AA18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19" t="s">
-        <v>3</v>
-      </c>
-      <c r="T19" t="s">
-        <v>12</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19" t="s">
-        <v>3</v>
-      </c>
-      <c r="X19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" t="s">
-        <v>11</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" t="s">
-        <v>11</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z20">
-        <v>2</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
-      <c r="S21" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" t="s">
-        <v>10</v>
-      </c>
-      <c r="V21">
-        <v>3</v>
-      </c>
-      <c r="W21" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z21">
-        <v>3</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="F20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="N20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="R20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
+      <c r="V20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W20" s="7"/>
+      <c r="X20" s="8"/>
+      <c r="Z20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="8"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>4</v>
+      <c r="B22" t="s">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>9</v>
-      </c>
-      <c r="R22">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="R22" t="s">
+        <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>9</v>
-      </c>
-      <c r="V22">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="V22" t="s">
+        <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z22">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB23" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s">
+        <v>11</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s">
+        <v>10</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>0</v>
+      <c r="B26">
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>2</v>
-      </c>
-      <c r="N26" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
       </c>
       <c r="O26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R26" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
       </c>
       <c r="S26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V26" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
       </c>
       <c r="W26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="Z26">
+        <v>4</v>
       </c>
       <c r="AA26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
-      <c r="S28" t="s">
-        <v>4</v>
-      </c>
-      <c r="T28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28" t="s">
-        <v>4</v>
-      </c>
-      <c r="X28" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z28">
-        <v>2</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29">
-        <v>3</v>
-      </c>
-      <c r="O29" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29">
-        <v>3</v>
-      </c>
-      <c r="S29" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" t="s">
-        <v>10</v>
-      </c>
-      <c r="V29">
-        <v>3</v>
-      </c>
-      <c r="W29" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z29">
-        <v>3</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N30">
-        <v>4</v>
-      </c>
-      <c r="O30" t="s">
-        <v>6</v>
-      </c>
-      <c r="P30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="S30" t="s">
-        <v>6</v>
-      </c>
-      <c r="T30" t="s">
-        <v>9</v>
-      </c>
-      <c r="V30">
-        <v>4</v>
-      </c>
-      <c r="W30" t="s">
-        <v>6</v>
-      </c>
-      <c r="X30" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z30">
-        <v>4</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="J29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8"/>
+      <c r="N29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="R29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="8"/>
+      <c r="V29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W29" s="7"/>
+      <c r="X29" s="8"/>
+      <c r="Z29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="8"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>5</v>
+      <c r="B31" t="s">
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>8</v>
-      </c>
-      <c r="N31">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>8</v>
-      </c>
-      <c r="R31">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="R31" t="s">
+        <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="V31" t="s">
+        <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X31" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z31">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>0</v>
       </c>
       <c r="AA31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s">
+        <v>12</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s">
+        <v>11</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" t="s">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s">
+        <v>10</v>
+      </c>
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34" t="s">
+        <v>5</v>
+      </c>
+      <c r="X34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z34">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35">
+        <v>4</v>
+      </c>
+      <c r="W35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" t="s">
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" t="s">
+        <v>8</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+      <c r="W36" t="s">
+        <v>7</v>
+      </c>
+      <c r="X36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z36">
+        <v>5</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB36" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:T11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="28">
     <tablePart r:id="rId1"/>
@@ -4144,10 +4542,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="B1:AB19"/>
+  <dimension ref="B1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4175,645 +4573,720 @@
     <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" customWidth="1"/>
     <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="N2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8"/>
+      <c r="R2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
+      <c r="V2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="8"/>
+      <c r="Z2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="8"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="N11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="11">
